--- a/Track/Daily/DSA-Sheet.xlsx
+++ b/Track/Daily/DSA-Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NIGAM SHARMA\Desktop\2024\Track\Daily\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1128DEB-4CC8-40F1-A8AA-E485E707DAE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0A92130-BA59-4193-A718-D97A7383617E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,13 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
-  <si>
-    <t>Day</t>
-  </si>
-  <si>
-    <t>Ques No.</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Topic</t>
   </si>
@@ -49,16 +43,36 @@
   </si>
   <si>
     <t>Date</t>
+  </si>
+  <si>
+    <t>Sorting</t>
+  </si>
+  <si>
+    <t>EASY</t>
+  </si>
+  <si>
+    <t>Understood Sorting algorithm</t>
+  </si>
+  <si>
+    <t>Selection Sort</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -87,14 +101,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -373,26 +392,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="8.88671875" customWidth="1"/>
-    <col min="3" max="3" width="16.109375" customWidth="1"/>
-    <col min="4" max="4" width="20.109375" customWidth="1"/>
-    <col min="5" max="5" width="17.77734375" customWidth="1"/>
-    <col min="6" max="6" width="18.44140625" customWidth="1"/>
-    <col min="7" max="7" width="58.21875" customWidth="1"/>
-    <col min="8" max="8" width="68.5546875" customWidth="1"/>
+    <col min="1" max="1" width="15.21875" customWidth="1"/>
+    <col min="2" max="2" width="20.109375" customWidth="1"/>
+    <col min="3" max="3" width="17.77734375" customWidth="1"/>
+    <col min="4" max="4" width="18.44140625" customWidth="1"/>
+    <col min="5" max="5" width="58.21875" customWidth="1"/>
+    <col min="6" max="6" width="68.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -409,14 +427,35 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
+        <v>45450</v>
+      </c>
+      <c r="B2" t="s">
         <v>6</v>
       </c>
+      <c r="C2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="4">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="F2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E3" s="4"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" display="https://takeuforward.org/sorting/selection-sort-algorithm/" xr:uid="{1F40ED75-1442-497C-8476-B28F6ECFC7ED}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/Track/Daily/DSA-Sheet.xlsx
+++ b/Track/Daily/DSA-Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NIGAM SHARMA\Desktop\2024\Track\Daily\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0A92130-BA59-4193-A718-D97A7383617E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98A58C10-3ED8-426A-8659-98B52D95A623}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>Topic</t>
   </si>
@@ -55,6 +55,15 @@
   </si>
   <si>
     <t>Selection Sort</t>
+  </si>
+  <si>
+    <t>Bubble Sort</t>
+  </si>
+  <si>
+    <t>Easy</t>
+  </si>
+  <si>
+    <t>Revised selection sort and code littlebit but understand at highlevel.</t>
   </si>
 </sst>
 </file>
@@ -395,7 +404,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -449,13 +458,31 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="E3" s="4"/>
+      <c r="A3" s="2">
+        <v>45455</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="4">
+        <v>3.125E-2</v>
+      </c>
+      <c r="F3" t="s">
+        <v>12</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" display="https://takeuforward.org/sorting/selection-sort-algorithm/" xr:uid="{1F40ED75-1442-497C-8476-B28F6ECFC7ED}"/>
+    <hyperlink ref="C3" r:id="rId2" display="https://takeuforward.org/data-structure/bubble-sort-algorithm/" xr:uid="{7FB94FBF-1EEA-491F-A42C-6F0169F54196}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
--- a/Track/Daily/DSA-Sheet.xlsx
+++ b/Track/Daily/DSA-Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NIGAM SHARMA\Desktop\2024\Track\Daily\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98A58C10-3ED8-426A-8659-98B52D95A623}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96AB23F1-BA75-401A-9EF3-9FEF49280DAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
   <si>
     <t>Topic</t>
   </si>
@@ -64,6 +64,12 @@
   </si>
   <si>
     <t>Revised selection sort and code littlebit but understand at highlevel.</t>
+  </si>
+  <si>
+    <t>Insertion Sort</t>
+  </si>
+  <si>
+    <t>revised bubble and selection sort and understood Insertion sort and dry run the code.</t>
   </si>
 </sst>
 </file>
@@ -401,10 +407,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -414,7 +420,7 @@
     <col min="3" max="3" width="17.77734375" customWidth="1"/>
     <col min="4" max="4" width="18.44140625" customWidth="1"/>
     <col min="5" max="5" width="58.21875" customWidth="1"/>
-    <col min="6" max="6" width="68.5546875" customWidth="1"/>
+    <col min="6" max="6" width="76.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -477,12 +483,33 @@
         <v>12</v>
       </c>
     </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <v>45457</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="4">
+        <v>1.3888888888888888E-2</v>
+      </c>
+      <c r="F4" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" display="https://takeuforward.org/sorting/selection-sort-algorithm/" xr:uid="{1F40ED75-1442-497C-8476-B28F6ECFC7ED}"/>
     <hyperlink ref="C3" r:id="rId2" display="https://takeuforward.org/data-structure/bubble-sort-algorithm/" xr:uid="{7FB94FBF-1EEA-491F-A42C-6F0169F54196}"/>
+    <hyperlink ref="C4" r:id="rId3" display="https://takeuforward.org/data-structure/insertion-sort-algorithm/" xr:uid="{85AF6434-1FEE-4824-A222-977D64EF3A3B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
--- a/Track/Daily/DSA-Sheet.xlsx
+++ b/Track/Daily/DSA-Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NIGAM SHARMA\Desktop\2024\Track\Daily\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96AB23F1-BA75-401A-9EF3-9FEF49280DAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20C13C6A-1862-4015-BBF6-49B60B664E9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
   <si>
     <t>Topic</t>
   </si>
@@ -70,6 +70,15 @@
   </si>
   <si>
     <t>revised bubble and selection sort and understood Insertion sort and dry run the code.</t>
+  </si>
+  <si>
+    <t>Merge Sort</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>revised sorting and understood concept but failed to implement class solution.</t>
   </si>
 </sst>
 </file>
@@ -407,10 +416,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -503,13 +512,34 @@
         <v>14</v>
       </c>
     </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <v>45458</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="4">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="F5" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" display="https://takeuforward.org/sorting/selection-sort-algorithm/" xr:uid="{1F40ED75-1442-497C-8476-B28F6ECFC7ED}"/>
     <hyperlink ref="C3" r:id="rId2" display="https://takeuforward.org/data-structure/bubble-sort-algorithm/" xr:uid="{7FB94FBF-1EEA-491F-A42C-6F0169F54196}"/>
     <hyperlink ref="C4" r:id="rId3" display="https://takeuforward.org/data-structure/insertion-sort-algorithm/" xr:uid="{85AF6434-1FEE-4824-A222-977D64EF3A3B}"/>
+    <hyperlink ref="C5" r:id="rId4" display="https://takeuforward.org/data-structure/merge-sort-algorithm/" xr:uid="{CEB717D3-BA78-450E-BF29-0D783DF776CC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
--- a/Track/Daily/DSA-Sheet.xlsx
+++ b/Track/Daily/DSA-Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NIGAM SHARMA\Desktop\2024\Track\Daily\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20C13C6A-1862-4015-BBF6-49B60B664E9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D36BBD15-EBDD-48DB-8CC0-3A51C20F1127}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="19">
   <si>
     <t>Topic</t>
   </si>
@@ -60,32 +60,35 @@
     <t>Bubble Sort</t>
   </si>
   <si>
-    <t>Easy</t>
-  </si>
-  <si>
     <t>Revised selection sort and code littlebit but understand at highlevel.</t>
   </si>
   <si>
     <t>Insertion Sort</t>
   </si>
   <si>
-    <t>revised bubble and selection sort and understood Insertion sort and dry run the code.</t>
-  </si>
-  <si>
     <t>Merge Sort</t>
   </si>
   <si>
     <t>Medium</t>
   </si>
   <si>
-    <t>revised sorting and understood concept but failed to implement class solution.</t>
+    <t>Recursive Bubble Sort</t>
+  </si>
+  <si>
+    <t>Revised bubble and selection sort and understood Insertion sort and dry run the code.</t>
+  </si>
+  <si>
+    <t>Revised sorting and understood concept but failed to implement class solution.</t>
+  </si>
+  <si>
+    <t>Understand Loops behind the scenes and try run to get answer</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -101,8 +104,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -112,6 +122,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -129,12 +151,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -416,19 +441,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F5"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.21875" customWidth="1"/>
     <col min="2" max="2" width="20.109375" customWidth="1"/>
-    <col min="3" max="3" width="17.77734375" customWidth="1"/>
-    <col min="4" max="4" width="18.44140625" customWidth="1"/>
-    <col min="5" max="5" width="58.21875" customWidth="1"/>
+    <col min="3" max="3" width="21.21875" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" customWidth="1"/>
+    <col min="5" max="5" width="18" customWidth="1"/>
     <col min="6" max="6" width="76.88671875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -462,7 +488,7 @@
       <c r="C2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E2" s="4">
@@ -482,14 +508,14 @@
       <c r="C3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D3" t="s">
-        <v>11</v>
+      <c r="D3" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="E3" s="4">
         <v>3.125E-2</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -500,16 +526,16 @@
         <v>6</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="E4" s="4">
         <v>1.3888888888888888E-2</v>
       </c>
       <c r="F4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -520,16 +546,36 @@
         <v>6</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" t="s">
-        <v>16</v>
+        <v>13</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>14</v>
       </c>
       <c r="E5" s="4">
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="F5" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>45460</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="7">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="F6" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -538,8 +584,9 @@
     <hyperlink ref="C3" r:id="rId2" display="https://takeuforward.org/data-structure/bubble-sort-algorithm/" xr:uid="{7FB94FBF-1EEA-491F-A42C-6F0169F54196}"/>
     <hyperlink ref="C4" r:id="rId3" display="https://takeuforward.org/data-structure/insertion-sort-algorithm/" xr:uid="{85AF6434-1FEE-4824-A222-977D64EF3A3B}"/>
     <hyperlink ref="C5" r:id="rId4" display="https://takeuforward.org/data-structure/merge-sort-algorithm/" xr:uid="{CEB717D3-BA78-450E-BF29-0D783DF776CC}"/>
+    <hyperlink ref="C6" r:id="rId5" display="https://takeuforward.org/arrays/recursive-bubble-sort-algorithm/" xr:uid="{AE857111-C4DB-4651-923D-72EAF7468234}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId5"/>
+  <pageSetup orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>
--- a/Track/Daily/DSA-Sheet.xlsx
+++ b/Track/Daily/DSA-Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NIGAM SHARMA\Desktop\2024\Track\Daily\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D36BBD15-EBDD-48DB-8CC0-3A51C20F1127}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{716B9117-AA17-49DE-94F9-66A203C37A97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="28">
   <si>
     <t>Topic</t>
   </si>
@@ -82,6 +82,33 @@
   </si>
   <si>
     <t>Understand Loops behind the scenes and try run to get answer</t>
+  </si>
+  <si>
+    <t>Quick Sort</t>
+  </si>
+  <si>
+    <t>Implemented logic and revised Merge Sort</t>
+  </si>
+  <si>
+    <t>Array</t>
+  </si>
+  <si>
+    <t>Second Largest Element in an Array without sorting</t>
+  </si>
+  <si>
+    <t>Understood Arrays and get some confidence in solving most easiest problems.</t>
+  </si>
+  <si>
+    <t>1752. Check if Array Is Sorted and Rotated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Understood solution by watching and then solved on its own </t>
+  </si>
+  <si>
+    <t>189. Rotate Array</t>
+  </si>
+  <si>
+    <t>Some sort of errors inmy code but overall approach was good.</t>
   </si>
 </sst>
 </file>
@@ -442,17 +469,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.21875" customWidth="1"/>
     <col min="2" max="2" width="20.109375" customWidth="1"/>
-    <col min="3" max="3" width="21.21875" customWidth="1"/>
+    <col min="3" max="3" width="47.77734375" customWidth="1"/>
     <col min="4" max="4" width="14.33203125" customWidth="1"/>
     <col min="5" max="5" width="18" customWidth="1"/>
     <col min="6" max="6" width="76.88671875" customWidth="1"/>
@@ -578,6 +605,86 @@
         <v>18</v>
       </c>
     </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <v>45492</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="7">
+        <v>5.2083333333333336E-2</v>
+      </c>
+      <c r="F7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <v>45493</v>
+      </c>
+      <c r="B8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="7">
+        <v>3.125E-2</v>
+      </c>
+      <c r="F8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
+        <v>45495</v>
+      </c>
+      <c r="B9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="7">
+        <v>1.8055555555555554E-2</v>
+      </c>
+      <c r="F9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
+        <v>45497</v>
+      </c>
+      <c r="B10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="7">
+        <v>3.4722222222222224E-2</v>
+      </c>
+      <c r="F10" t="s">
+        <v>27</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" display="https://takeuforward.org/sorting/selection-sort-algorithm/" xr:uid="{1F40ED75-1442-497C-8476-B28F6ECFC7ED}"/>
@@ -585,8 +692,12 @@
     <hyperlink ref="C4" r:id="rId3" display="https://takeuforward.org/data-structure/insertion-sort-algorithm/" xr:uid="{85AF6434-1FEE-4824-A222-977D64EF3A3B}"/>
     <hyperlink ref="C5" r:id="rId4" display="https://takeuforward.org/data-structure/merge-sort-algorithm/" xr:uid="{CEB717D3-BA78-450E-BF29-0D783DF776CC}"/>
     <hyperlink ref="C6" r:id="rId5" display="https://takeuforward.org/arrays/recursive-bubble-sort-algorithm/" xr:uid="{AE857111-C4DB-4651-923D-72EAF7468234}"/>
+    <hyperlink ref="C7" r:id="rId6" display="https://takeuforward.org/data-structure/quick-sort-algorithm/" xr:uid="{BBF49C66-4A10-4861-9812-BC88FDBB7355}"/>
+    <hyperlink ref="C8" r:id="rId7" display="https://takeuforward.org/data-structure/find-second-smallest-and-second-largest-element-in-an-array/" xr:uid="{75597439-AEB3-49C8-A68A-B55C748E7BA9}"/>
+    <hyperlink ref="C9" r:id="rId8" display="https://leetcode.com/problems/check-if-array-is-sorted-and-rotated/" xr:uid="{786FD67F-30AF-4813-AD18-D1C095BBF553}"/>
+    <hyperlink ref="C10" r:id="rId9" display="https://leetcode.com/problems/rotate-array/" xr:uid="{8A63873E-56CC-4A76-9B1F-B10247725F27}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId6"/>
+  <pageSetup orientation="portrait" r:id="rId10"/>
 </worksheet>
 </file>
--- a/Track/Daily/DSA-Sheet.xlsx
+++ b/Track/Daily/DSA-Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NIGAM SHARMA\Desktop\2024\Track\Daily\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{716B9117-AA17-49DE-94F9-66A203C37A97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{772CAD22-40BA-4773-B1CF-98A96A1048EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="40">
   <si>
     <t>Topic</t>
   </si>
@@ -109,6 +109,42 @@
   </si>
   <si>
     <t>Some sort of errors inmy code but overall approach was good.</t>
+  </si>
+  <si>
+    <t>283. Move Zeroes</t>
+  </si>
+  <si>
+    <t>Cant solve, still lag in some basics but understood solution and code on own</t>
+  </si>
+  <si>
+    <t>Find the Union</t>
+  </si>
+  <si>
+    <t>Linear Search</t>
+  </si>
+  <si>
+    <t xml:space="preserve">just loop over the array and found </t>
+  </si>
+  <si>
+    <t>take some time, overall approach was good but not good at implementing in right way.</t>
+  </si>
+  <si>
+    <t>268. Missing Number</t>
+  </si>
+  <si>
+    <t>my approach works well but cant handle all edge cases</t>
+  </si>
+  <si>
+    <t>485. Max Consecutive Ones</t>
+  </si>
+  <si>
+    <t>know solution somewhere fail to apply algo and explroed sliding window algo.</t>
+  </si>
+  <si>
+    <t>136. Single Number</t>
+  </si>
+  <si>
+    <t>Learn Bitwise operators and explore how XOR works</t>
   </si>
 </sst>
 </file>
@@ -469,10 +505,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -607,7 +643,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
-        <v>45492</v>
+        <v>45462</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
@@ -627,7 +663,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
-        <v>45493</v>
+        <v>45463</v>
       </c>
       <c r="B8" t="s">
         <v>21</v>
@@ -647,7 +683,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
-        <v>45495</v>
+        <v>45465</v>
       </c>
       <c r="B9" t="s">
         <v>21</v>
@@ -667,7 +703,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
-        <v>45497</v>
+        <v>45467</v>
       </c>
       <c r="B10" t="s">
         <v>21</v>
@@ -683,6 +719,126 @@
       </c>
       <c r="F10" t="s">
         <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
+        <v>45468</v>
+      </c>
+      <c r="B11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="7">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="F11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
+        <v>45469</v>
+      </c>
+      <c r="B12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="7">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="F12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
+        <v>45469</v>
+      </c>
+      <c r="B13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" s="7">
+        <v>1.3888888888888889E-3</v>
+      </c>
+      <c r="F13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
+        <v>45470</v>
+      </c>
+      <c r="B14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" s="7">
+        <v>1.6666666666666666E-2</v>
+      </c>
+      <c r="F14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
+        <v>45471</v>
+      </c>
+      <c r="B15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" s="7">
+        <v>3.4722222222222224E-2</v>
+      </c>
+      <c r="F15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
+        <v>45472</v>
+      </c>
+      <c r="B16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" s="7">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="F16" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -696,8 +852,14 @@
     <hyperlink ref="C8" r:id="rId7" display="https://takeuforward.org/data-structure/find-second-smallest-and-second-largest-element-in-an-array/" xr:uid="{75597439-AEB3-49C8-A68A-B55C748E7BA9}"/>
     <hyperlink ref="C9" r:id="rId8" display="https://leetcode.com/problems/check-if-array-is-sorted-and-rotated/" xr:uid="{786FD67F-30AF-4813-AD18-D1C095BBF553}"/>
     <hyperlink ref="C10" r:id="rId9" display="https://leetcode.com/problems/rotate-array/" xr:uid="{8A63873E-56CC-4A76-9B1F-B10247725F27}"/>
+    <hyperlink ref="C11" r:id="rId10" display="https://leetcode.com/problems/move-zeroes/" xr:uid="{F683404D-06B4-4253-A75C-BAFC62A4888E}"/>
+    <hyperlink ref="C12" r:id="rId11" display="https://takeuforward.org/data-structure/union-of-two-sorted-arrays/" xr:uid="{BD44316E-AE7F-4095-BCDF-9204A784AAD1}"/>
+    <hyperlink ref="C13" r:id="rId12" display="https://takeuforward.org/data-structure/linear-search-in-c/" xr:uid="{654BC309-236E-433C-B028-CD8A54F10D59}"/>
+    <hyperlink ref="C14" r:id="rId13" display="https://leetcode.com/problems/missing-number/" xr:uid="{23246BFD-AE11-4959-9427-D26B93B64AFE}"/>
+    <hyperlink ref="C15" r:id="rId14" display="https://leetcode.com/problems/max-consecutive-ones/" xr:uid="{3E1E6FD6-FE2A-43BD-BA26-2877C8C2102E}"/>
+    <hyperlink ref="C16" r:id="rId15" display="https://leetcode.com/problems/single-number/" xr:uid="{4EC88DA0-2B4D-424E-93B5-E4CC41E4D95F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId10"/>
+  <pageSetup orientation="portrait" r:id="rId16"/>
 </worksheet>
 </file>